--- a/Code/Results/Cases/Case_2_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.004084573969976</v>
+        <v>0.4756736078547874</v>
       </c>
       <c r="C2">
-        <v>0.2707135362709323</v>
+        <v>0.1289437545541432</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2839409807601072</v>
+        <v>0.1177529936711394</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008213544929720192</v>
+        <v>0.002504701607980413</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.7390629441477898</v>
+        <v>1.093206866784406</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.250723372225906</v>
+        <v>0.593591767820925</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6679980262827456</v>
+        <v>0.2976026010178501</v>
       </c>
       <c r="N2">
-        <v>1.331532669962257</v>
+        <v>2.309051508517086</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.87012793040509</v>
+        <v>0.4407338459475056</v>
       </c>
       <c r="C3">
-        <v>0.2350855305866872</v>
+        <v>0.1197948262781239</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2453326503268229</v>
+        <v>0.1077341651412667</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008275316657545428</v>
+        <v>0.002508463030738485</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7155064673127214</v>
+        <v>1.09187812045267</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.084233063957726</v>
+        <v>0.5503887842177733</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5782073085766939</v>
+        <v>0.2743082962894903</v>
       </c>
       <c r="N3">
-        <v>1.368441893934786</v>
+        <v>2.323885184752157</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7888911859782297</v>
+        <v>0.4195348428377486</v>
       </c>
       <c r="C4">
-        <v>0.2136428201228142</v>
+        <v>0.1142564059016564</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2220603036957343</v>
+        <v>0.1016512026924019</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008314302438976052</v>
+        <v>0.002510893081447891</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7024315308491396</v>
+        <v>1.091571430499634</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9834548169571349</v>
+        <v>0.5241913622026857</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5239602077693277</v>
+        <v>0.2601746139530121</v>
       </c>
       <c r="N4">
-        <v>1.392925093348325</v>
+        <v>2.333688740256903</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7560083145134513</v>
+        <v>0.4109598759414155</v>
       </c>
       <c r="C5">
-        <v>0.2050004319219596</v>
+        <v>0.1120191538246615</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2126715468669715</v>
+        <v>0.09918936351323993</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008330464767393842</v>
+        <v>0.002511913751961539</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6974298294844132</v>
+        <v>1.091574231279026</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9427048262108144</v>
+        <v>0.5135982109030977</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5020481608542511</v>
+        <v>0.2544571973505896</v>
       </c>
       <c r="N5">
-        <v>1.403340100081081</v>
+        <v>2.337858388582681</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7505606113552403</v>
+        <v>0.4095398594659798</v>
       </c>
       <c r="C6">
-        <v>0.2035707819047161</v>
+        <v>0.1116488443588537</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2111178923430117</v>
+        <v>0.09878159775303885</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008333165399371234</v>
+        <v>0.002512085072821413</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6966183807723638</v>
+        <v>1.091582406528573</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9359562419771237</v>
+        <v>0.5118442006046848</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4984206132569398</v>
+        <v>0.253510361675211</v>
       </c>
       <c r="N6">
-        <v>1.405095396371514</v>
+        <v>2.338561293436904</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7884468601220078</v>
+        <v>0.4194189396575325</v>
       </c>
       <c r="C7">
-        <v>0.2135258951459917</v>
+        <v>0.1142261540137071</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2219333171538267</v>
+        <v>0.1016179328831797</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008314519282803444</v>
+        <v>0.00251090672338831</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7023627833692672</v>
+        <v>1.091570951240641</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9829040193615128</v>
+        <v>0.5240481655894484</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5236639444293303</v>
+        <v>0.2600973365744608</v>
       </c>
       <c r="N7">
-        <v>1.393063806019711</v>
+        <v>2.333744266973341</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9576653962826356</v>
+        <v>0.4635735496603957</v>
       </c>
       <c r="C8">
-        <v>0.2583308609080177</v>
+        <v>0.1257726833198376</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2705300934764878</v>
+        <v>0.1142841062603495</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008234630116884543</v>
+        <v>0.002505973591694908</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.730638182803915</v>
+        <v>1.092642881019927</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.192988306716671</v>
+        <v>0.5786268093258968</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.636836784425185</v>
+        <v>0.2895354049561973</v>
       </c>
       <c r="N8">
-        <v>1.343868605596477</v>
+        <v>2.314021604453615</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.299172445883073</v>
+        <v>0.5521872955137042</v>
       </c>
       <c r="C9">
-        <v>0.3502822876531866</v>
+        <v>0.1490521323495386</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3699621407491449</v>
+        <v>0.1396793136090793</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008085902810464868</v>
+        <v>0.002497251509569889</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.7982253160167829</v>
+        <v>1.098797808077002</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.61872202130948</v>
+        <v>0.6882894195481128</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8671928640705602</v>
+        <v>0.3486243281278973</v>
       </c>
       <c r="N9">
-        <v>1.262821223693535</v>
+        <v>2.280878319369677</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.558478041155013</v>
+        <v>0.6185487838850463</v>
       </c>
       <c r="C10">
-        <v>0.4213383897435392</v>
+        <v>0.1665586593999819</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.446608291815572</v>
+        <v>0.1586955540656092</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007980774304997655</v>
+        <v>0.002491417283121351</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.856993835215178</v>
+        <v>1.10581042140447</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.94339217071942</v>
+        <v>0.7705018528452854</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.04373350293848</v>
+        <v>0.3928977782855654</v>
       </c>
       <c r="N10">
-        <v>1.214171204100893</v>
+        <v>2.259919254882078</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.678892716670362</v>
+        <v>0.6490164193786256</v>
       </c>
       <c r="C11">
-        <v>0.4546771690232561</v>
+        <v>0.1746137200145483</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.4825278115014271</v>
+        <v>0.1674285617553721</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007933675763273607</v>
+        <v>0.002488886404433843</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.886136237137336</v>
+        <v>1.109545909393375</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.094548747065232</v>
+        <v>0.8082679656387768</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.126174635548445</v>
+        <v>0.4132328736127491</v>
       </c>
       <c r="N11">
-        <v>1.194780326491269</v>
+        <v>2.251124875137734</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.724901865239787</v>
+        <v>0.6605941699863251</v>
       </c>
       <c r="C12">
-        <v>0.4674715149180599</v>
+        <v>0.1776773190529468</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4963065210134303</v>
+        <v>0.1707476796091143</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007915929131724765</v>
+        <v>0.00248794563107518</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8975582277367096</v>
+        <v>1.111039204650851</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.152367376216688</v>
+        <v>0.8226223429366826</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.157750476236288</v>
+        <v>0.4209617436120681</v>
       </c>
       <c r="N12">
-        <v>1.187867174605159</v>
+        <v>2.247901442657721</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.714973719615784</v>
+        <v>0.6580988989160517</v>
       </c>
       <c r="C13">
-        <v>0.4647080704277471</v>
+        <v>0.1770169224561755</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4933307318241518</v>
+        <v>0.1700323050272772</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007919747514923166</v>
+        <v>0.002488147461453094</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8950804271082049</v>
+        <v>1.110714089412184</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.139887966768271</v>
+        <v>0.8195285004289872</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.150933301237608</v>
+        <v>0.4192959233845244</v>
       </c>
       <c r="N13">
-        <v>1.189336320425568</v>
+        <v>2.248590909810119</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.682669332970278</v>
+        <v>0.6499681190759645</v>
       </c>
       <c r="C14">
-        <v>0.4557262214988498</v>
+        <v>0.17486549599505</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4836576956782466</v>
+        <v>0.1677013832030099</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007932214057318752</v>
+        <v>0.002488808653779438</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8870679419575396</v>
+        <v>1.109667183656057</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.099293422372028</v>
+        <v>0.8094478412172634</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.128764930403378</v>
+        <v>0.4138681607723811</v>
       </c>
       <c r="N14">
-        <v>1.194202745586097</v>
+        <v>2.250857538519881</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.662937269064201</v>
+        <v>0.6449930362886107</v>
       </c>
       <c r="C15">
-        <v>0.4502474262961016</v>
+        <v>0.1735494261178587</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4777565052370818</v>
+        <v>0.166275212222466</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007939861216300398</v>
+        <v>0.002489215944702432</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8822116479331328</v>
+        <v>1.109036188312423</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.07450603922041</v>
+        <v>0.8032800814227414</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.115234276788719</v>
+        <v>0.4105472109300479</v>
       </c>
       <c r="N15">
-        <v>1.197240666074507</v>
+        <v>2.252259835506507</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.550662855350453</v>
+        <v>0.6165632869052615</v>
       </c>
       <c r="C16">
-        <v>0.4191820136130957</v>
+        <v>0.1660340955691879</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4442841554129302</v>
+        <v>0.1581265126510303</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007983865589205798</v>
+        <v>0.002491585151931216</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8551411007449161</v>
+        <v>1.105577300634678</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.933590134212466</v>
+        <v>0.7680411692857092</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.03839287938245</v>
+        <v>0.3915727864723095</v>
       </c>
       <c r="N16">
-        <v>1.215496547597439</v>
+        <v>2.260508912823298</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.482454124296794</v>
+        <v>0.5991942256592893</v>
       </c>
       <c r="C17">
-        <v>0.4004004076511194</v>
+        <v>0.1614471977312917</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4240367624234906</v>
+        <v>0.153148847973462</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008011035860164517</v>
+        <v>0.002493070057788715</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8391782092536886</v>
+        <v>1.103595303305077</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.848084557460936</v>
+        <v>0.7465175557241821</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9918334780409381</v>
+        <v>0.3799827793304473</v>
       </c>
       <c r="N17">
-        <v>1.227421974080286</v>
+        <v>2.265759267738488</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.443449571603367</v>
+        <v>0.5892302970626133</v>
       </c>
       <c r="C18">
-        <v>0.3896916925884284</v>
+        <v>0.1588175125375813</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4124884116012382</v>
+        <v>0.1502935691236189</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008026732744656674</v>
+        <v>0.002493935732289764</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8302208164424059</v>
+        <v>1.102506628689611</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.799224578066429</v>
+        <v>0.7341722893380052</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9652510639134917</v>
+        <v>0.3733348334663162</v>
       </c>
       <c r="N18">
-        <v>1.234536732203551</v>
+        <v>2.268848761559397</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.430280681506275</v>
+        <v>0.5858611944739778</v>
       </c>
       <c r="C19">
-        <v>0.3860813648403507</v>
+        <v>0.157928613377976</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4085943426113658</v>
+        <v>0.1493281424657553</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008032059788434444</v>
+        <v>0.002494230829080226</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8272253241562737</v>
+        <v>1.102146826469266</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.78273415817435</v>
+        <v>0.7299983169272082</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.9562831535597027</v>
+        <v>0.3710870879239749</v>
       </c>
       <c r="N19">
-        <v>1.23698853642469</v>
+        <v>2.269906757877138</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.489691136641085</v>
+        <v>0.6010404693995781</v>
       </c>
       <c r="C20">
-        <v>0.4023898529898133</v>
+        <v>0.1619345916940631</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4261818753397009</v>
+        <v>0.1536779256773713</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008008136478108657</v>
+        <v>0.002492910787691206</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8408540223200092</v>
+        <v>1.103800976810525</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.857153035523254</v>
+        <v>0.7488052030937524</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9967690349220248</v>
+        <v>0.3812146565698171</v>
       </c>
       <c r="N20">
-        <v>1.226125795582163</v>
+        <v>2.265193149330628</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.692146276912837</v>
+        <v>0.6523552309035097</v>
       </c>
       <c r="C21">
-        <v>0.4583596008178574</v>
+        <v>0.1754970589250604</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4864938865585913</v>
+        <v>0.1683857004606892</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007928550061853906</v>
+        <v>0.002488613968340569</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8894105750894639</v>
+        <v>1.109972545536245</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.111200622576916</v>
+        <v>0.8124073292809726</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.135266192936101</v>
+        <v>0.4154616520563437</v>
       </c>
       <c r="N21">
-        <v>1.192761390638722</v>
+        <v>2.250188872788286</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.826887837579818</v>
+        <v>0.6861274646909692</v>
       </c>
       <c r="C22">
-        <v>0.4959410921615017</v>
+        <v>0.1844386629292671</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5269555882718606</v>
+        <v>0.1780688354594488</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007877043464132298</v>
+        <v>0.002485908383672603</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9234191810171666</v>
+        <v>1.114465170288376</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.280654004501542</v>
+        <v>0.8542850820933268</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.227891729133859</v>
+        <v>0.4380098256754081</v>
       </c>
       <c r="N22">
-        <v>1.173480321092057</v>
+        <v>2.24100545911709</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.754731083484671</v>
+        <v>0.6680810339712195</v>
       </c>
       <c r="C23">
-        <v>0.4757828923754062</v>
+        <v>0.1796591799408702</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5052556857739035</v>
+        <v>0.1728942019470381</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007904492666014061</v>
+        <v>0.002487343044139811</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9050456464797634</v>
+        <v>1.112025254109398</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.189871590129684</v>
+        <v>0.8319056442613828</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.178244450433041</v>
+        <v>0.4259601428883428</v>
       </c>
       <c r="N23">
-        <v>1.183527124533057</v>
+        <v>2.245849705808467</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.486418634922273</v>
+        <v>0.6002057147857158</v>
       </c>
       <c r="C24">
-        <v>0.4014901490450882</v>
+        <v>0.1617142179009647</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4252117846593464</v>
+        <v>0.1534387095914198</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008009447049797983</v>
+        <v>0.002492982756265623</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8400957053120024</v>
+        <v>1.103707833584572</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.853052253416251</v>
+        <v>0.7477708675856718</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.994537096533918</v>
+        <v>0.3806576772367549</v>
       </c>
       <c r="N24">
-        <v>1.226710994827059</v>
+        <v>2.265448870318494</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.205506004754994</v>
+        <v>0.5279957600931198</v>
       </c>
       <c r="C25">
-        <v>0.3248713563119736</v>
+        <v>0.1426847203324542</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3425162763504588</v>
+        <v>0.1327476745306768</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008125356181977503</v>
+        <v>0.002499509827420079</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.778474758308505</v>
+        <v>1.096696811381868</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.501735964499062</v>
+        <v>0.6583369306146096</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8037630703446794</v>
+        <v>0.3324903051167567</v>
       </c>
       <c r="N25">
-        <v>1.2829503129648</v>
+        <v>2.289250254603985</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_141/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_141/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4756736078547874</v>
+        <v>1.004084573970061</v>
       </c>
       <c r="C2">
-        <v>0.1289437545541432</v>
+        <v>0.2707135362707902</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1177529936711394</v>
+        <v>0.2839409807601001</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002504701607980413</v>
+        <v>0.0008213544929995623</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.093206866784406</v>
+        <v>0.7390629441477898</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.593591767820925</v>
+        <v>1.250723372225906</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2976026010178501</v>
+        <v>0.6679980262827314</v>
       </c>
       <c r="N2">
-        <v>2.309051508517086</v>
+        <v>1.331532669962243</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4407338459475056</v>
+        <v>0.8701279304050615</v>
       </c>
       <c r="C3">
-        <v>0.1197948262781239</v>
+        <v>0.2350855305865878</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1077341651412667</v>
+        <v>0.2453326503268087</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002508463030738485</v>
+        <v>0.0008275316657521422</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.09187812045267</v>
+        <v>0.7155064673127427</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5503887842177733</v>
+        <v>1.084233063957726</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2743082962894903</v>
+        <v>0.5782073085767152</v>
       </c>
       <c r="N3">
-        <v>2.323885184752157</v>
+        <v>1.368441893934829</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4195348428377486</v>
+        <v>0.7888911859782581</v>
       </c>
       <c r="C4">
-        <v>0.1142564059016564</v>
+        <v>0.2136428201225584</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1016512026924019</v>
+        <v>0.2220603036957343</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002510893081447891</v>
+        <v>0.0008314302439276653</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.091571430499634</v>
+        <v>0.7024315308491254</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5241913622026857</v>
+        <v>0.9834548169571349</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2601746139530121</v>
+        <v>0.5239602077693206</v>
       </c>
       <c r="N4">
-        <v>2.333688740256903</v>
+        <v>1.392925093348353</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4109598759414155</v>
+        <v>0.7560083145133945</v>
       </c>
       <c r="C5">
-        <v>0.1120191538246615</v>
+        <v>0.2050004319215475</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.09918936351323993</v>
+        <v>0.2126715468669929</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002511913751961539</v>
+        <v>0.0008330464767017047</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.091574231279026</v>
+        <v>0.6974298294844345</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5135982109030977</v>
+        <v>0.9427048262108428</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2544571973505896</v>
+        <v>0.5020481608542582</v>
       </c>
       <c r="N5">
-        <v>2.337858388582681</v>
+        <v>1.403340100081166</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4095398594659798</v>
+        <v>0.7505606113551266</v>
       </c>
       <c r="C6">
-        <v>0.1116488443588537</v>
+        <v>0.2035707819045882</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.09878159775303885</v>
+        <v>0.2111178923430188</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002512085072821413</v>
+        <v>0.0008333165399050496</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.091582406528573</v>
+        <v>0.6966183807723496</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5118442006046848</v>
+        <v>0.9359562419770953</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.253510361675211</v>
+        <v>0.4984206132569469</v>
       </c>
       <c r="N6">
-        <v>2.338561293436904</v>
+        <v>1.405095396371436</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4194189396575325</v>
+        <v>0.788446860121951</v>
       </c>
       <c r="C7">
-        <v>0.1142261540137071</v>
+        <v>0.2135258951457217</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1016179328831797</v>
+        <v>0.2219333171538409</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.00251090672338831</v>
+        <v>0.0008314519283471007</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.091570951240641</v>
+        <v>0.7023627833692885</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5240481655894484</v>
+        <v>0.9829040193615413</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2600973365744608</v>
+        <v>0.5236639444293232</v>
       </c>
       <c r="N7">
-        <v>2.333744266973341</v>
+        <v>1.393063806019775</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4635735496603957</v>
+        <v>0.9576653962826072</v>
       </c>
       <c r="C8">
-        <v>0.1257726833198376</v>
+        <v>0.2583308609080461</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1142841062603495</v>
+        <v>0.2705300934764878</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002505973591694908</v>
+        <v>0.0008234630117598618</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.092642881019927</v>
+        <v>0.7306381828039434</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5786268093258968</v>
+        <v>1.1929883067167</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2895354049561973</v>
+        <v>0.6368367844251708</v>
       </c>
       <c r="N8">
-        <v>2.314021604453615</v>
+        <v>1.343868605596477</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5521872955137042</v>
+        <v>1.299172445882959</v>
       </c>
       <c r="C9">
-        <v>0.1490521323495386</v>
+        <v>0.3502822876533287</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1396793136090793</v>
+        <v>0.3699621407491236</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002497251509569889</v>
+        <v>0.0008085902809870403</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.098797808077002</v>
+        <v>0.7982253160167971</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6882894195481128</v>
+        <v>1.618722021309623</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3486243281278973</v>
+        <v>0.8671928640705531</v>
       </c>
       <c r="N9">
-        <v>2.280878319369677</v>
+        <v>1.262821223693592</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6185487838850463</v>
+        <v>1.558478041155041</v>
       </c>
       <c r="C10">
-        <v>0.1665586593999819</v>
+        <v>0.4213383897433971</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1586955540656092</v>
+        <v>0.4466082918156218</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002491417283121351</v>
+        <v>0.0007980774305409272</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.10581042140447</v>
+        <v>0.8569938352151709</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7705018528452854</v>
+        <v>1.943392170719449</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3928977782855654</v>
+        <v>1.043733502938508</v>
       </c>
       <c r="N10">
-        <v>2.259919254882078</v>
+        <v>1.214171204100907</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6490164193786256</v>
+        <v>1.678892716670333</v>
       </c>
       <c r="C11">
-        <v>0.1746137200145483</v>
+        <v>0.4546771690233982</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1674285617553721</v>
+        <v>0.4825278115014484</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002488886404433843</v>
+        <v>0.0007933675762794579</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.109545909393375</v>
+        <v>0.886136237137336</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8082679656387768</v>
+        <v>2.094548747065346</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4132328736127491</v>
+        <v>1.126174635548452</v>
       </c>
       <c r="N11">
-        <v>2.251124875137734</v>
+        <v>1.194780326491255</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6605941699863251</v>
+        <v>1.724901865239787</v>
       </c>
       <c r="C12">
-        <v>0.1776773190529468</v>
+        <v>0.4674715149179747</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1707476796091143</v>
+        <v>0.4963065210134516</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.00248794563107518</v>
+        <v>0.0007915929131531607</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.111039204650851</v>
+        <v>0.8975582277366954</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.8226223429366826</v>
+        <v>2.152367376216944</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4209617436120681</v>
+        <v>1.157750476236302</v>
       </c>
       <c r="N12">
-        <v>2.247901442657721</v>
+        <v>1.187867174605145</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6580988989160517</v>
+        <v>1.714973719615813</v>
       </c>
       <c r="C13">
-        <v>0.1770169224561755</v>
+        <v>0.4647080704277187</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1700323050272772</v>
+        <v>0.4933307318241802</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002488147461453094</v>
+        <v>0.0007919747514597429</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.110714089412184</v>
+        <v>0.895080427108212</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.8195285004289872</v>
+        <v>2.139887966768157</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4192959233845244</v>
+        <v>1.150933301237586</v>
       </c>
       <c r="N13">
-        <v>2.248590909810119</v>
+        <v>1.189336320425667</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6499681190759645</v>
+        <v>1.68266933297042</v>
       </c>
       <c r="C14">
-        <v>0.17486549599505</v>
+        <v>0.4557262214986793</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1677013832030099</v>
+        <v>0.4836576956782537</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002488808653779438</v>
+        <v>0.0007932214056998696</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.109667183656057</v>
+        <v>0.8870679419575396</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.8094478412172634</v>
+        <v>2.099293422372</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4138681607723811</v>
+        <v>1.12876493040342</v>
       </c>
       <c r="N14">
-        <v>2.250857538519881</v>
+        <v>1.194202745586097</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6449930362886107</v>
+        <v>1.662937269064031</v>
       </c>
       <c r="C15">
-        <v>0.1735494261178587</v>
+        <v>0.4502474262962721</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.166275212222466</v>
+        <v>0.4777565052371173</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002489215944702432</v>
+        <v>0.0007939861215571319</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.109036188312423</v>
+        <v>0.8822116479331257</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8032800814227414</v>
+        <v>2.074506039220438</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4105472109300479</v>
+        <v>1.115234276788726</v>
       </c>
       <c r="N15">
-        <v>2.252259835506507</v>
+        <v>1.197240666074521</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6165632869052615</v>
+        <v>1.550662855350481</v>
       </c>
       <c r="C16">
-        <v>0.1660340955691879</v>
+        <v>0.4191820136129252</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1581265126510303</v>
+        <v>0.4442841554129302</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002491585151931216</v>
+        <v>0.0007983865589204558</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.105577300634678</v>
+        <v>0.8551411007449161</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7680411692857092</v>
+        <v>1.933590134212466</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3915727864723095</v>
+        <v>1.038392879382442</v>
       </c>
       <c r="N16">
-        <v>2.260508912823298</v>
+        <v>1.215496547597439</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5991942256592893</v>
+        <v>1.482454124296879</v>
       </c>
       <c r="C17">
-        <v>0.1614471977312917</v>
+        <v>0.4004004076508636</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.153148847973462</v>
+        <v>0.4240367624234693</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.002493070057788715</v>
+        <v>0.0008011035859858127</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.103595303305077</v>
+        <v>0.8391782092536957</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7465175557241821</v>
+        <v>1.848084557460908</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3799827793304473</v>
+        <v>0.991833478040931</v>
       </c>
       <c r="N17">
-        <v>2.265759267738488</v>
+        <v>1.227421974080258</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5892302970626133</v>
+        <v>1.443449571603338</v>
       </c>
       <c r="C18">
-        <v>0.1588175125375813</v>
+        <v>0.3896916925886558</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1502935691236189</v>
+        <v>0.4124884116012595</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002493935732289764</v>
+        <v>0.0008026732744508551</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.102506628689611</v>
+        <v>0.8302208164424059</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7341722893380052</v>
+        <v>1.799224578066486</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3733348334663162</v>
+        <v>0.9652510639134633</v>
       </c>
       <c r="N18">
-        <v>2.268848761559397</v>
+        <v>1.234536732203608</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5858611944739778</v>
+        <v>1.43028068150636</v>
       </c>
       <c r="C19">
-        <v>0.157928613377976</v>
+        <v>0.3860813648403507</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1493281424657553</v>
+        <v>0.408594342611444</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002494230829080226</v>
+        <v>0.000803205978799048</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.102146826469266</v>
+        <v>0.8272253241562808</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7299983169272082</v>
+        <v>1.782734158174264</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3710870879239749</v>
+        <v>0.9562831535597169</v>
       </c>
       <c r="N19">
-        <v>2.269906757877138</v>
+        <v>1.23698853642469</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6010404693995781</v>
+        <v>1.489691136641056</v>
       </c>
       <c r="C20">
-        <v>0.1619345916940631</v>
+        <v>0.4023898529895007</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1536779256773713</v>
+        <v>0.4261818753396511</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002492910787691206</v>
+        <v>0.0008008136478374617</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.103800976810525</v>
+        <v>0.8408540223200092</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7488052030937524</v>
+        <v>1.857153035523282</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3812146565698171</v>
+        <v>0.9967690349220391</v>
       </c>
       <c r="N20">
-        <v>2.265193149330628</v>
+        <v>1.226125795582149</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6523552309035097</v>
+        <v>1.692146276913206</v>
       </c>
       <c r="C21">
-        <v>0.1754970589250604</v>
+        <v>0.458359600817829</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1683857004606892</v>
+        <v>0.4864938865585771</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002488613968340569</v>
+        <v>0.0007928550061667937</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.109972545536245</v>
+        <v>0.8894105750894639</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.8124073292809726</v>
+        <v>2.111200622576916</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4154616520563437</v>
+        <v>1.135266192936101</v>
       </c>
       <c r="N21">
-        <v>2.250188872788286</v>
+        <v>1.192761390638779</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6861274646909692</v>
+        <v>1.826887837579847</v>
       </c>
       <c r="C22">
-        <v>0.1844386629292671</v>
+        <v>0.4959410921613312</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1780688354594488</v>
+        <v>0.5269555882718606</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002485908383672603</v>
+        <v>0.0007877043463641749</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.114465170288376</v>
+        <v>0.9234191810171808</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8542850820933268</v>
+        <v>2.280654004501685</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4380098256754081</v>
+        <v>1.227891729133844</v>
       </c>
       <c r="N22">
-        <v>2.24100545911709</v>
+        <v>1.173480321092086</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6680810339712195</v>
+        <v>1.7547310834847</v>
       </c>
       <c r="C23">
-        <v>0.1796591799408702</v>
+        <v>0.4757828923752356</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1728942019470381</v>
+        <v>0.5052556857738892</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002487343044139811</v>
+        <v>0.0007904492665427849</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.112025254109398</v>
+        <v>0.9050456464797492</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.8319056442613828</v>
+        <v>2.189871590129798</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4259601428883428</v>
+        <v>1.178244450433041</v>
       </c>
       <c r="N23">
-        <v>2.245849705808467</v>
+        <v>1.183527124532986</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6002057147857158</v>
+        <v>1.486418634922387</v>
       </c>
       <c r="C24">
-        <v>0.1617142179009647</v>
+        <v>0.4014901490451166</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1534387095914198</v>
+        <v>0.4252117846593038</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002492982756265623</v>
+        <v>0.0008009447049794052</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.103707833584572</v>
+        <v>0.8400957053120095</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7477708675856718</v>
+        <v>1.853052253416166</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3806576772367549</v>
+        <v>0.9945370965339251</v>
       </c>
       <c r="N24">
-        <v>2.265448870318494</v>
+        <v>1.226710994827059</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5279957600931198</v>
+        <v>1.205506004754966</v>
       </c>
       <c r="C25">
-        <v>0.1426847203324542</v>
+        <v>0.3248713563117178</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1327476745306768</v>
+        <v>0.3425162763504304</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002499509827420079</v>
+        <v>0.0008125356181674118</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.096696811381868</v>
+        <v>0.778474758308505</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6583369306146096</v>
+        <v>1.501735964498948</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3324903051167567</v>
+        <v>0.8037630703446794</v>
       </c>
       <c r="N25">
-        <v>2.289250254603985</v>
+        <v>1.282950312964687</v>
       </c>
       <c r="O25">
         <v>0</v>
